--- a/outcome/appendix/data/0_impact/HBV.xlsx
+++ b/outcome/appendix/data/0_impact/HBV.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>105289.700463072</v>
+        <v>105289.70072532</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -427,7 +427,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>99653.627947398</v>
+        <v>99653.6271301025</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -445,7 +445,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>106774.380951686</v>
+        <v>106774.38175249</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -463,7 +463,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>106866.890302091</v>
+        <v>106866.890962324</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -481,7 +481,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>105804.736837737</v>
+        <v>105804.737246933</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -499,7 +499,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>101930.634584886</v>
+        <v>101930.634325579</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -517,7 +517,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>106823.898427628</v>
+        <v>106823.899230217</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -535,7 +535,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>105816.549557042</v>
+        <v>105816.550119943</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -553,7 +553,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>101904.212690575</v>
+        <v>101904.212425883</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -571,7 +571,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>101859.745749302</v>
+        <v>101859.745382306</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -589,7 +589,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>103118.701169125</v>
+        <v>103118.700984379</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -607,7 +607,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>103186.998059301</v>
+        <v>103186.997943459</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -625,7 +625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>104816.326208576</v>
+        <v>104816.326416226</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -643,7 +643,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>102831.526837622</v>
+        <v>102831.526364324</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -661,7 +661,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>105337.535538246</v>
+        <v>105337.536045152</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -679,7 +679,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>105568.075504891</v>
+        <v>105568.076187422</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -697,7 +697,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>105420.477580373</v>
+        <v>105420.478047985</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -715,7 +715,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>103853.356955471</v>
+        <v>103853.356905978</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -733,7 +733,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>105017.575258661</v>
+        <v>105017.575780929</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -751,7 +751,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>104743.385528615</v>
+        <v>104743.386007516</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -769,7 +769,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>103693.356598433</v>
+        <v>103693.356500459</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -787,7 +787,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>103586.048562009</v>
+        <v>103586.048352667</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -805,7 +805,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>103780.360493618</v>
+        <v>103780.360376805</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -823,7 +823,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>103789.219237069</v>
+        <v>103789.219148235</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>104318.889206772</v>
+        <v>104318.889414142</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -859,7 +859,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>103767.628921151</v>
+        <v>103767.628761494</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -877,7 +877,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>104534.263276799</v>
+        <v>104534.263647701</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -895,7 +895,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>104684.238813651</v>
+        <v>104684.239424418</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -913,7 +913,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>104810.594421255</v>
+        <v>104810.595163851</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -931,7 +931,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>104209.31409966</v>
+        <v>104209.31426774</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -949,7 +949,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>104490.655557134</v>
+        <v>104490.655917325</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -967,7 +967,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>104388.92750899</v>
+        <v>104388.927829515</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -985,7 +985,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>104099.749253074</v>
+        <v>104099.749316851</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1003,7 +1003,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>104035.707976937</v>
+        <v>104035.707966355</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1021,7 +1021,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>104051.632888898</v>
+        <v>104051.632891203</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1039,7 +1039,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>104044.770884423</v>
+        <v>104044.770888367</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1057,7 +1057,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>104197.450632878</v>
+        <v>104197.450769671</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1075,7 +1075,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>104054.034769296</v>
+        <v>104054.034771263</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
